--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S12/S12_dampingfactor.xlsx
@@ -14,168 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015575636220017697</t>
-  </si>
-  <si>
-    <t>0.024211397314030596</t>
-  </si>
-  <si>
-    <t>0.03765096828767911</t>
-  </si>
-  <si>
-    <t>0.06049516917430445</t>
-  </si>
-  <si>
-    <t>0.0925659180545759</t>
-  </si>
-  <si>
-    <t>0.15121835114371135</t>
-  </si>
-  <si>
-    <t>0.22767778323326082</t>
-  </si>
-  <si>
-    <t>0.35414176110331286</t>
-  </si>
-  <si>
-    <t>0.5692587733553066</t>
-  </si>
-  <si>
-    <t>0.9000226708275454</t>
-  </si>
-  <si>
-    <t>1.4002681798571686</t>
-  </si>
-  <si>
-    <t>2.1430576002853896</t>
-  </si>
-  <si>
-    <t>3.4443873144880435</t>
-  </si>
-  <si>
-    <t>5.35922586229157</t>
-  </si>
-  <si>
-    <t>8.474208415899055</t>
-  </si>
-  <si>
-    <t>13.973672641937092</t>
-  </si>
-  <si>
-    <t>21.53376183292844</t>
-  </si>
-  <si>
-    <t>32.42193759481314</t>
-  </si>
-  <si>
-    <t>46.47146316045918</t>
-  </si>
-  <si>
-    <t>66.60277789758717</t>
-  </si>
-  <si>
-    <t>95.46667634080288</t>
-  </si>
-  <si>
-    <t>136.83493990612413</t>
-  </si>
-  <si>
-    <t>196.13990921191447</t>
-  </si>
-  <si>
-    <t>281.11591379159904</t>
-  </si>
-  <si>
-    <t>402.9089113690321</t>
-  </si>
-  <si>
-    <t>515.0600347079816</t>
-  </si>
-  <si>
-    <t>2.7913253628820414</t>
-  </si>
-  <si>
-    <t>3.0108047744907656</t>
-  </si>
-  <si>
-    <t>2.9504175955078766</t>
-  </si>
-  <si>
-    <t>2.9112047995927073</t>
-  </si>
-  <si>
-    <t>2.7426696533567756</t>
-  </si>
-  <si>
-    <t>2.55638146027266</t>
-  </si>
-  <si>
-    <t>2.3012824057796153</t>
-  </si>
-  <si>
-    <t>2.139242061105304</t>
-  </si>
-  <si>
-    <t>1.9118322800746619</t>
-  </si>
-  <si>
-    <t>1.7898275481555312</t>
-  </si>
-  <si>
-    <t>1.5773980051705287</t>
-  </si>
-  <si>
-    <t>1.4156548400181106</t>
-  </si>
-  <si>
-    <t>1.3019634884762734</t>
-  </si>
-  <si>
-    <t>1.128082793757789</t>
-  </si>
-  <si>
-    <t>1.0268330499485332</t>
-  </si>
-  <si>
-    <t>0.9568269743498482</t>
-  </si>
-  <si>
-    <t>0.884609695855318</t>
-  </si>
-  <si>
-    <t>0.7951185206119527</t>
-  </si>
-  <si>
-    <t>0.7413956753925031</t>
-  </si>
-  <si>
-    <t>0.7065313182804293</t>
-  </si>
-  <si>
-    <t>0.6546175021869356</t>
-  </si>
-  <si>
-    <t>0.6110881388129723</t>
-  </si>
-  <si>
-    <t>0.5633608786299217</t>
-  </si>
-  <si>
-    <t>0.5330759891467712</t>
-  </si>
-  <si>
-    <t>0.5038935201945347</t>
-  </si>
-  <si>
-    <t>0.4678190449180495</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -548,211 +392,211 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="A2">
+        <v>0.0155756362200177</v>
+      </c>
+      <c r="B2">
+        <v>2.791325362882041</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="A3">
+        <v>0.0242113973140306</v>
+      </c>
+      <c r="B3">
+        <v>3.010804774490766</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="A4">
+        <v>0.03765096828767911</v>
+      </c>
+      <c r="B4">
+        <v>2.950417595507877</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
+      <c r="A5">
+        <v>0.06049516917430445</v>
+      </c>
+      <c r="B5">
+        <v>2.911204799592707</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
+      <c r="A6">
+        <v>0.0925659180545759</v>
+      </c>
+      <c r="B6">
+        <v>2.742669653356776</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="A7">
+        <v>0.1512183511437113</v>
+      </c>
+      <c r="B7">
+        <v>2.55638146027266</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+      <c r="A8">
+        <v>0.2276777832332608</v>
+      </c>
+      <c r="B8">
+        <v>2.301282405779615</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
+      <c r="A9">
+        <v>0.3541417611033129</v>
+      </c>
+      <c r="B9">
+        <v>2.139242061105304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="A10">
+        <v>0.5692587733553066</v>
+      </c>
+      <c r="B10">
+        <v>1.911832280074662</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="A11">
+        <v>0.9000226708275454</v>
+      </c>
+      <c r="B11">
+        <v>1.789827548155531</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="A12">
+        <v>1.400268179857169</v>
+      </c>
+      <c r="B12">
+        <v>1.577398005170529</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+      <c r="A13">
+        <v>2.14305760028539</v>
+      </c>
+      <c r="B13">
+        <v>1.415654840018111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
+      <c r="A14">
+        <v>3.444387314488043</v>
+      </c>
+      <c r="B14">
+        <v>1.301963488476273</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="A15">
+        <v>5.35922586229157</v>
+      </c>
+      <c r="B15">
+        <v>1.128082793757789</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
+      <c r="A16">
+        <v>8.474208415899055</v>
+      </c>
+      <c r="B16">
+        <v>1.026833049948533</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
+      <c r="A17">
+        <v>13.97367264193709</v>
+      </c>
+      <c r="B17">
+        <v>0.9568269743498482</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
+      <c r="A18">
+        <v>21.53376183292844</v>
+      </c>
+      <c r="B18">
+        <v>0.884609695855318</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
+      <c r="A19">
+        <v>32.42193759481314</v>
+      </c>
+      <c r="B19">
+        <v>0.7951185206119527</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
+      <c r="A20">
+        <v>46.47146316045918</v>
+      </c>
+      <c r="B20">
+        <v>0.7413956753925031</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
+      <c r="A21">
+        <v>66.60277789758717</v>
+      </c>
+      <c r="B21">
+        <v>0.7065313182804293</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
+      <c r="A22">
+        <v>95.46667634080288</v>
+      </c>
+      <c r="B22">
+        <v>0.6546175021869356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
+      <c r="A23">
+        <v>136.8349399061241</v>
+      </c>
+      <c r="B23">
+        <v>0.6110881388129723</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="A24">
+        <v>196.1399092119145</v>
+      </c>
+      <c r="B24">
+        <v>0.5633608786299217</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
+      <c r="A25">
+        <v>281.115913791599</v>
+      </c>
+      <c r="B25">
+        <v>0.5330759891467712</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+      <c r="A26">
+        <v>402.9089113690321</v>
+      </c>
+      <c r="B26">
+        <v>0.5038935201945347</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
+      <c r="A27">
+        <v>515.0600347079816</v>
+      </c>
+      <c r="B27">
+        <v>0.4678190449180495</v>
       </c>
     </row>
   </sheetData>
